--- a/codigo_final_organizado/analisis/Resultados_analisis/Tamaño/N_Train_1000/Tests_Estadisticos/dm_comparaciones_DeepAR_General.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Tamaño/N_Train_1000/Tests_Estadisticos/dm_comparaciones_DeepAR_General.xlsx
@@ -438,10 +438,10 @@
         <v>40</v>
       </c>
       <c r="C2">
-        <v>-0.2175230824583065</v>
+        <v>-0.1857778469365516</v>
       </c>
       <c r="D2">
-        <v>0.8278095275212607</v>
+        <v>0.8537229047962624</v>
       </c>
       <c r="E2">
         <v>1.45814654946464</v>
@@ -464,10 +464,10 @@
         <v>60</v>
       </c>
       <c r="C3">
-        <v>0.01817280013639344</v>
+        <v>0.01070189892367874</v>
       </c>
       <c r="D3">
-        <v>0.9855017208792429</v>
+        <v>0.991523833272711</v>
       </c>
       <c r="E3">
         <v>1.45814654946464</v>
@@ -490,10 +490,10 @@
         <v>100</v>
       </c>
       <c r="C4">
-        <v>0.3075655534192542</v>
+        <v>0.2805866942285271</v>
       </c>
       <c r="D4">
-        <v>0.7584256456092304</v>
+        <v>0.7807277463332984</v>
       </c>
       <c r="E4">
         <v>1.45814654946464</v>
@@ -516,10 +516,10 @@
         <v>200</v>
       </c>
       <c r="C5">
-        <v>-0.4287577399473829</v>
+        <v>-0.3306339371931933</v>
       </c>
       <c r="D5">
-        <v>0.6681178637569545</v>
+        <v>0.7429499516626406</v>
       </c>
       <c r="E5">
         <v>1.45814654946464</v>
@@ -542,10 +542,10 @@
         <v>60</v>
       </c>
       <c r="C6">
-        <v>0.2811970874375269</v>
+        <v>0.2599959592849306</v>
       </c>
       <c r="D6">
-        <v>0.7785707840295142</v>
+        <v>0.796434935887649</v>
       </c>
       <c r="E6">
         <v>1.533372877273887</v>
@@ -568,10 +568,10 @@
         <v>100</v>
       </c>
       <c r="C7">
-        <v>0.670136880682401</v>
+        <v>0.9931572636137704</v>
       </c>
       <c r="D7">
-        <v>0.5028012448461978</v>
+        <v>0.3276492542044294</v>
       </c>
       <c r="E7">
         <v>1.533372877273887</v>
@@ -594,10 +594,10 @@
         <v>200</v>
       </c>
       <c r="C8">
-        <v>-0.2956259209588097</v>
+        <v>-0.2584335074202835</v>
       </c>
       <c r="D8">
-        <v>0.7675279567253681</v>
+        <v>0.7976304338836364</v>
       </c>
       <c r="E8">
         <v>1.533372877273887</v>
@@ -620,10 +620,10 @@
         <v>100</v>
       </c>
       <c r="C9">
-        <v>0.3483115932078861</v>
+        <v>0.3705418230099904</v>
       </c>
       <c r="D9">
-        <v>0.7276207386936631</v>
+        <v>0.7132774029178419</v>
       </c>
       <c r="E9">
         <v>1.453029349159874</v>
@@ -646,10 +646,10 @@
         <v>200</v>
       </c>
       <c r="C10">
-        <v>-0.5192368800585809</v>
+        <v>-0.4464825655076207</v>
       </c>
       <c r="D10">
-        <v>0.6036183678395677</v>
+        <v>0.6580795915645936</v>
       </c>
       <c r="E10">
         <v>1.453029349159874</v>
@@ -672,10 +672,10 @@
         <v>200</v>
       </c>
       <c r="C11">
-        <v>-0.7964920023118818</v>
+        <v>-0.6385527812838422</v>
       </c>
       <c r="D11">
-        <v>0.4257836453610255</v>
+        <v>0.5273921692542036</v>
       </c>
       <c r="E11">
         <v>1.34919593566908</v>
